--- a/data/output/FV2310_FV2304/INVOIC/31010.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31010.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="262">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="262">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -884,6 +884,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
+  <autoFilter ref="A1:U158"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,7 +1203,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8302,5 +8335,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31010.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31010.xlsx
@@ -1777,7 +1777,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3127,7 +3127,7 @@
         <v>251</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2"/>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5317,7 +5317,7 @@
         <v>255</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N116" s="2"/>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7517,7 +7517,7 @@
         <v>260</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8571,7 +8571,7 @@
         <v>260</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -8725,7 +8725,7 @@
         <v>261</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2"/>
